--- a/biology/Zoologie/Bursina/Bursina.xlsx
+++ b/biology/Zoologie/Bursina/Bursina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bursina est un genre de mollusques gastéropodes la famille des Bursidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 janvier 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 janvier 2024) :
 Bursina borisbeckeri (Parth, 1996)
 Bursina fernandesi (Beu, 1977)
 Bursina gnorima (Melvill, 1918)
@@ -579,9 +595,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bursina Ōyama (d), 1964[1].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bursina Ōyama (d), 1964.  
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(ja) Katsura Ōyama, « On the confused usage of the genus Ranella and the allies », Venus (Japanese Journal of Malacology), Japon, vol. 22, no 4,‎ 1964, p. 317-336 (ISSN 2433-0671, lire en ligne, consulté le 26 janvier 2024).</t>
         </is>
